--- a/inst/extdata/structure_tests/correct_structure_01.xlsx
+++ b/inst/extdata/structure_tests/correct_structure_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0A5B7-CA58-B84E-A3E9-77609DFECAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0432C84A-2CC1-B043-8CAA-4E6489454A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="3040" yWindow="1940" windowWidth="31520" windowHeight="18700" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>Notes</t>
   </si>
@@ -107,9 +107,6 @@
     <t>2020-01-01</t>
   </si>
   <si>
-    <t>This particular spreadsheet checks that NA values are treated correctly</t>
-  </si>
-  <si>
     <t>This is an example of input data that should pass tests</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>study_id</t>
+  </si>
+  <si>
+    <t>Test: checks that missing values are treated correctly</t>
   </si>
 </sst>
 </file>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F458F03-62A4-D443-9D68-A11CADF671CD}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,12 +560,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -588,7 +588,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -630,7 +630,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
@@ -653,10 +653,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>13.834868728741601</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>-2.4596101883305699</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>-5.4190973444405701</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>-5.7976385881881196</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>-4.9645359306507402</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>-0.86281007354695705</v>
@@ -801,123 +801,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
         <v>10</v>
       </c>
     </row>

--- a/inst/extdata/structure_tests/correct_structure_01.xlsx
+++ b/inst/extdata/structure_tests/correct_structure_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0432C84A-2CC1-B043-8CAA-4E6489454A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05174B4C-463A-264E-B654-56746A6570DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1940" windowWidth="31520" windowHeight="18700" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="3040" yWindow="1940" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,44 +39,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>study_name</t>
-  </si>
-  <si>
-    <t>study_type</t>
-  </si>
-  <si>
-    <t>authors</t>
-  </si>
-  <si>
-    <t>publication_year</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1093%2Fgenetics%2F16.2.97</t>
   </si>
   <si>
-    <t>study_key</t>
-  </si>
-  <si>
     <t>country_name</t>
   </si>
   <si>
     <t>site_name</t>
   </si>
   <si>
-    <t>spatial_notes</t>
-  </si>
-  <si>
     <t>collection_start</t>
   </si>
   <si>
@@ -92,9 +68,6 @@
     <t>S01</t>
   </si>
   <si>
-    <t>survey_key</t>
-  </si>
-  <si>
     <t>variant_string</t>
   </si>
   <si>
@@ -147,13 +120,43 @@
   </si>
   <si>
     <t>Test: checks that missing values are treated correctly</t>
+  </si>
+  <si>
+    <t>study_label</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>access_level</t>
+  </si>
+  <si>
+    <t>contributors</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>reference_year</t>
+  </si>
+  <si>
+    <t>location_method</t>
+  </si>
+  <si>
+    <t>location_notes</t>
+  </si>
+  <si>
+    <t>time_method</t>
+  </si>
+  <si>
+    <t>public</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,13 +174,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,12 +200,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F458F03-62A4-D443-9D68-A11CADF671CD}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -560,12 +554,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,40 +580,43 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{7B381643-2B72-2A44-B9DF-AEEC0C994AA3}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{46AFDDA3-7B52-9B4C-8B5D-7A1BDE78549F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -627,10 +624,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF84CB1-9532-2C43-A7F8-683871878F9F}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,47 +636,53 @@
     <col min="8" max="10" width="14.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="E2">
         <v>16.404988708593599</v>
@@ -687,16 +690,18 @@
       <c r="F2">
         <v>16.601718882385502</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2"/>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>13.834868728741601</v>
@@ -704,16 +709,18 @@
       <c r="F3">
         <v>29.990485059822301</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3"/>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>-2.4596101883305699</v>
@@ -721,16 +728,16 @@
       <c r="F4">
         <v>16.7538639525837</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>-5.4190973444405701</v>
@@ -738,16 +745,16 @@
       <c r="F5">
         <v>20.405345637339099</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>-5.7976385881881196</v>
@@ -755,16 +762,16 @@
       <c r="F6">
         <v>25.502205488977001</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>-4.9645359306507402</v>
@@ -772,16 +779,16 @@
       <c r="F7">
         <v>29.077614638633399</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>-0.86281007354695705</v>
@@ -789,8 +796,8 @@
       <c r="F8">
         <v>31.3597906916056</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -804,37 +811,37 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -845,13 +852,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -862,13 +869,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -879,13 +886,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -896,13 +903,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -913,13 +920,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -930,13 +937,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>1</v>

--- a/inst/extdata/structure_tests/correct_structure_01.xlsx
+++ b/inst/extdata/structure_tests/correct_structure_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05174B4C-463A-264E-B654-56746A6570DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8A0244-21D7-2842-A193-56C9A3FD9BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1940" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="3040" yWindow="1840" windowWidth="31520" windowHeight="18700" activeTab="3" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>Notes</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>public</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,7 +586,7 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -602,8 +608,11 @@
       <c r="G1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -808,15 +817,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -832,8 +841,11 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -850,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -867,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -884,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -901,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -918,7 +930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -935,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
